--- a/src/main/resources/tools/xml_tool/DIO2_Template_Layout.xlsx
+++ b/src/main/resources/tools/xml_tool/DIO2_Template_Layout.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XML_Tool\src\main\resources\tools\xml_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achol\IdeaProjects\XML_Tool\src\main\resources\tools\xml_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647EC42-DC5B-4B7C-A1F1-8D0CA7C27740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B90D567-BCC1-4478-B7E5-95BBDC6F5EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15540" xr2:uid="{BCC978E4-153D-444B-A566-8372D2C7B1B2}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{BCC978E4-153D-444B-A566-8372D2C7B1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>XXPointNameXX</t>
   </si>
@@ -70,23 +68,143 @@
     <t>XXDescrXX</t>
   </si>
   <si>
-    <t>TestPointName</t>
-  </si>
-  <si>
-    <t>This is a Description</t>
-  </si>
-  <si>
     <t>OVERIDE</t>
   </si>
   <si>
     <t>696D</t>
+  </si>
+  <si>
+    <t>This is a Description 1</t>
+  </si>
+  <si>
+    <t>TestPointName 1</t>
+  </si>
+  <si>
+    <t>TestPointName 2</t>
+  </si>
+  <si>
+    <t>This is a Description 2</t>
+  </si>
+  <si>
+    <t>TestPointName 3</t>
+  </si>
+  <si>
+    <t>This is a Description 3</t>
+  </si>
+  <si>
+    <t>TestPointName 4</t>
+  </si>
+  <si>
+    <t>This is a Description 4</t>
+  </si>
+  <si>
+    <t>TestPointName 5</t>
+  </si>
+  <si>
+    <t>This is a Description 5</t>
+  </si>
+  <si>
+    <t>TestPointName 6</t>
+  </si>
+  <si>
+    <t>This is a Description 6</t>
+  </si>
+  <si>
+    <t>TestPointName 7</t>
+  </si>
+  <si>
+    <t>This is a Description 7</t>
+  </si>
+  <si>
+    <t>TestPointName 8</t>
+  </si>
+  <si>
+    <t>This is a Description 8</t>
+  </si>
+  <si>
+    <t>TestPointName 9</t>
+  </si>
+  <si>
+    <t>This is a Description 9</t>
+  </si>
+  <si>
+    <t>TestPointName 10</t>
+  </si>
+  <si>
+    <t>This is a Description 10</t>
+  </si>
+  <si>
+    <t>TestPointName 11</t>
+  </si>
+  <si>
+    <t>This is a Description 11</t>
+  </si>
+  <si>
+    <t>TestPointName 12</t>
+  </si>
+  <si>
+    <t>This is a Description 12</t>
+  </si>
+  <si>
+    <t>TestPointName 13</t>
+  </si>
+  <si>
+    <t>This is a Description 13</t>
+  </si>
+  <si>
+    <t>TestPointName 14</t>
+  </si>
+  <si>
+    <t>This is a Description 14</t>
+  </si>
+  <si>
+    <t>TestPointName 15</t>
+  </si>
+  <si>
+    <t>This is a Description 15</t>
+  </si>
+  <si>
+    <t>TestPointName 16</t>
+  </si>
+  <si>
+    <t>This is a Description 16</t>
+  </si>
+  <si>
+    <t>TestPointName 17</t>
+  </si>
+  <si>
+    <t>This is a Description 17</t>
+  </si>
+  <si>
+    <t>TestPointName 18</t>
+  </si>
+  <si>
+    <t>This is a Description 18</t>
+  </si>
+  <si>
+    <t>TestPointName 19</t>
+  </si>
+  <si>
+    <t>This is a Description 19</t>
+  </si>
+  <si>
+    <t>TestPointName 20</t>
+  </si>
+  <si>
+    <t>This is a Description 20</t>
+  </si>
+  <si>
+    <t>TestPointName 21</t>
+  </si>
+  <si>
+    <t>This is a Description 21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +217,12 @@
       <color rgb="FFA9B7C6"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -441,29 +565,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFD8961-7CC5-47F9-9308-0A449FA086BC}">
-  <dimension ref="A3:M5"/>
+  <dimension ref="A3:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="1"/>
-    <col min="14" max="14" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="1"/>
+    <col min="14" max="14" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13">
@@ -506,16 +630,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>401111</v>
@@ -543,9 +667,768 @@
       </c>
     </row>
     <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
       <c r="M5" s="2"/>
     </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>401111</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>401112</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>401113</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>401114</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
